--- a/Pipeline_2-Vulnerability/Institutions/Outputs/Data/RCI_Inst.xlsx
+++ b/Pipeline_2-Vulnerability/Institutions/Outputs/Data/RCI_Inst.xlsx
@@ -2663,6 +2663,15 @@
           <t>ES63</t>
         </is>
       </c>
+      <c r="C110">
+        <v>0.5092460706223112</v>
+      </c>
+      <c r="D110">
+        <v>0.427984417942059</v>
+      </c>
+      <c r="E110">
+        <v>0.4868415654588436</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -2674,6 +2683,15 @@
         <is>
           <t>ES64</t>
         </is>
+      </c>
+      <c r="C111">
+        <v>0.5092460706223112</v>
+      </c>
+      <c r="D111">
+        <v>0.427984417942059</v>
+      </c>
+      <c r="E111">
+        <v>0.4868415654588436</v>
       </c>
     </row>
     <row r="112">
